--- a/ZachSwain_MSEG804-Exam2_#1.xlsx
+++ b/ZachSwain_MSEG804-Exam2_#1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Terminator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772DB5F-EE8E-4138-80FF-FDBD48BBC597}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7360CAF4-BD51-4877-BAC4-17A3EE83FF74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13650" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{70AA2196-6CF3-4B95-B584-7E7DBF24A5AB}"/>
   </bookViews>
@@ -15384,7 +15384,7 @@
   <dimension ref="A1:T572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
